--- a/master_parts_list.xlsx
+++ b/master_parts_list.xlsx
@@ -1,23 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatcherr/Code/GitHub/open-source-rover/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3385C997-122A-0B45-848F-A96BC0B52FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="43400" yWindow="-17380" windowWidth="44520" windowHeight="30220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$L$140</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="527">
   <si>
     <t>The cost information contained in this document is of a budgetary and planning nature and is intended for informational purposes only.  It does not constitute a commitment on the part of JPL and/or Caltech.</t>
   </si>
@@ -613,9 +629,6 @@
     <t>D24V50F5</t>
   </si>
   <si>
-    <t>https://www.pololu.com/product/2851</t>
-  </si>
-  <si>
     <t>12V Regulator</t>
   </si>
   <si>
@@ -1580,17 +1593,37 @@
   </si>
   <si>
     <t>Differential Pivot, Head Assembly</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>ED2989-ND</t>
+  </si>
+  <si>
+    <t>https://shop.pimoroni.com/products/pololu-9v-1a-step-down-voltage-regulator-d24v10f9</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>X?</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,6 +1687,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1700,7 +1741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1732,9 +1773,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1766,6 +1825,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1941,1530 +2018,1608 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="82.33203125" customWidth="1"/>
+    <col min="7" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+    <row r="2" spans="2:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3">
-        <f>SUM(J5:J200)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="L2" s="3">
+        <f>SUM(K5:K200)</f>
+        <v>2826.4700000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="5" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>228</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>3.45</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>10.35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>72</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.72</v>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>3.72</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="L6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.72</v>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>3.72</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="L7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>100</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>32</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4.07</v>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>4.07</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="L8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>28</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4.41</v>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>4.41</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="L9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>50</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5.42</v>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10" s="1">
         <v>5.42</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="L10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>50</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6.51</v>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>6.51</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="L11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>52</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3.02</v>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>3.02</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="L12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>100</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>7.7</v>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>7.7</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="L13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>25</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>16</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>7.07</v>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>7.07</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="L14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>100</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>72</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2.72</v>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>2.72</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="L15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>100</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2.79</v>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>2.79</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="L16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>25</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>8</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3.78</v>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>3.78</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="L17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>6.33</v>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>6.33</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1">
+        <v>6.33</v>
+      </c>
+      <c r="L18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
         <v>15.59</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>31.18</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
         <v>12.56</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>25.12</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>95</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="1">
-        <v>4.95</v>
+      <c r="I21">
+        <v>1</v>
       </c>
       <c r="J21" s="1">
         <v>4.95</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="L21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>520</v>
+      </c>
+      <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>99</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>100</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="1">
-        <v>4.95</v>
+      <c r="I22">
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <v>4.95</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="L22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>520</v>
+      </c>
+      <c r="B23" t="s">
         <v>102</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>103</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>104</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="1">
-        <v>4.95</v>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23" s="1">
         <v>4.95</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="L23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>520</v>
+      </c>
+      <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>107</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>108</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" s="1">
-        <v>4.95</v>
+      <c r="I24">
+        <v>1</v>
       </c>
       <c r="J24" s="1">
         <v>4.95</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="L24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" t="s">
         <v>110</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>111</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="1">
-        <v>22.1</v>
+      <c r="I25">
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>22.1</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="L25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>116</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>10</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="1">
-        <v>5</v>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>5</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>118</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>119</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>12</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1">
         <v>1.24</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>14.88</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>520</v>
+      </c>
+      <c r="B28" t="s">
         <v>121</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>123</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>7</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1">
         <v>1.74</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>12.18</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>520</v>
+      </c>
+      <c r="B29" t="s">
         <v>125</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>126</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>127</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>6</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1">
         <v>1.26</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>7.56</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>520</v>
+      </c>
+      <c r="B30" t="s">
         <v>129</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>131</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>8</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1">
         <v>0.49</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>3.92</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>520</v>
+      </c>
+      <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>134</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>135</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.04</v>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
       <c r="J31" s="1">
         <v>0.04</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>520</v>
+      </c>
+      <c r="B32" t="s">
         <v>137</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>139</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.04</v>
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="J32" s="1">
         <v>0.04</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" t="s">
         <v>141</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>142</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>143</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
       </c>
       <c r="G33">
         <v>10</v>
       </c>
       <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.04</v>
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
       </c>
       <c r="J33" s="1">
         <v>0.04</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>520</v>
+      </c>
+      <c r="B34" t="s">
         <v>145</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>146</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>147</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.06</v>
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <v>0.06</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="L34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>520</v>
+      </c>
+      <c r="B35" t="s">
         <v>149</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>150</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>151</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
       <c r="G35">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>30</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1">
         <v>0.18</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>5.4</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>520</v>
+      </c>
+      <c r="B36" t="s">
         <v>153</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>154</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>155</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
       <c r="G36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
         <v>0.75</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>3</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>520</v>
+      </c>
+      <c r="B37" t="s">
         <v>157</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>159</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1">
         <v>0.73</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>2.19</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>520</v>
+      </c>
+      <c r="B38" t="s">
         <v>161</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>162</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>163</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
       <c r="G38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1">
         <v>0.66</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>1.98</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B39" t="s">
         <v>165</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>166</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>167</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
       <c r="G39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
         <v>0.59</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>2.95</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>520</v>
+      </c>
+      <c r="B40" t="s">
         <v>169</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>170</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>171</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
       <c r="G40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1">
         <v>0.35</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>1.05</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>520</v>
+      </c>
+      <c r="B41" t="s">
         <v>173</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>174</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>175</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41" s="1">
-        <v>1.55</v>
+      <c r="I41">
+        <v>1</v>
       </c>
       <c r="J41" s="1">
         <v>1.55</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="L41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>520</v>
+      </c>
+      <c r="B42" t="s">
         <v>177</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>178</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>179</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
       <c r="G42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>3</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
         <v>0.48</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>1.44</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>520</v>
+      </c>
+      <c r="B43" t="s">
         <v>181</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>182</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>183</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
         <v>0.42</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>0.84</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>521</v>
+      </c>
+      <c r="B44" t="s">
         <v>185</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>186</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>187</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
       <c r="G44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>5</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1">
         <v>69.95</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>349.75</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>190</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>191</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>192</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" s="1">
-        <v>34.99</v>
+      <c r="I45">
+        <v>1</v>
       </c>
       <c r="J45" s="1">
         <v>34.99</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1">
+        <v>34.99</v>
+      </c>
+      <c r="L45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>525</v>
+      </c>
+      <c r="B46" t="s">
         <v>195</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>196</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>197</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
+      <c r="F46" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3472,2004 +3627,2136 @@
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" s="1">
-        <v>14.95</v>
+      <c r="I46">
+        <v>1</v>
       </c>
       <c r="J46" s="1">
         <v>14.95</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1">
+        <v>14.95</v>
+      </c>
+      <c r="L46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>520</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
         <v>199</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>200</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D47" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="K47" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>520</v>
+      </c>
+      <c r="B48" t="s">
         <v>202</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="J47" s="1">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="K47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
         <v>203</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>204</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" s="1">
-        <v>23.8</v>
+      <c r="I48">
+        <v>1</v>
       </c>
       <c r="J48" s="1">
         <v>23.8</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="L48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>520</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s">
         <v>207</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>208</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
       <c r="G49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" s="1">
         <v>0.37</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>1.48</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>520</v>
+      </c>
+      <c r="B50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" t="s">
         <v>211</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>212</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50" s="1">
-        <v>1.55</v>
+      <c r="I50">
+        <v>1</v>
       </c>
       <c r="J50" s="1">
         <v>1.55</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="L50" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>520</v>
+      </c>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
         <v>215</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>216</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
       <c r="G51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>5</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51" s="1">
         <v>2.46</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>12.3</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>521</v>
+      </c>
+      <c r="B52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" t="s">
         <v>219</v>
       </c>
-      <c r="B52" t="s">
+      <c r="E52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D52" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52" s="1">
-        <v>7.99</v>
+      <c r="I52">
+        <v>1</v>
       </c>
       <c r="J52" s="1">
         <v>7.99</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="L52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
         <v>222</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53">
+        <v>1988</v>
+      </c>
+      <c r="E53" t="s">
         <v>223</v>
       </c>
-      <c r="C53">
-        <v>1988</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="F53" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53" s="1">
-        <v>2.95</v>
+      <c r="I53">
+        <v>1</v>
       </c>
       <c r="J53" s="1">
         <v>2.95</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="L53" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" t="s">
         <v>226</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>227</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54" s="1">
-        <v>1.4</v>
+      <c r="I54">
+        <v>1</v>
       </c>
       <c r="J54" s="1">
         <v>1.4</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55" t="s">
         <v>230</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="K55" s="1">
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" s="1">
-        <v>17.99</v>
-      </c>
-      <c r="J55" s="1">
-        <v>17.99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
-        <v>233</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="F56" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D56" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56" s="1">
-        <v>32.99</v>
+      <c r="I56">
+        <v>1</v>
       </c>
       <c r="J56" s="1">
         <v>32.99</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="K56" s="1">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>520</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" t="s">
         <v>236</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>237</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
         <v>0.17</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>0.51</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>520</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
         <v>240</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
+        <v>522</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D58" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
       <c r="G58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" s="1">
         <v>0.5</v>
       </c>
-      <c r="J58" s="1">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>521</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
         <v>243</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
-      <c r="I59" s="1">
-        <v>5.57</v>
+      <c r="I59">
+        <v>1</v>
       </c>
       <c r="J59" s="1">
         <v>5.57</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="1">
+        <v>5.57</v>
+      </c>
+      <c r="L59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>521</v>
+      </c>
+      <c r="B60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" t="s">
         <v>246</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>247</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>248</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
-      <c r="I60" s="1">
-        <v>86.95</v>
+      <c r="I60">
+        <v>1</v>
       </c>
       <c r="J60" s="1">
         <v>86.95</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="1">
+        <v>86.95</v>
+      </c>
+      <c r="L60" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" t="s">
         <v>251</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D61" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
-      <c r="I61" s="1">
-        <v>24.95</v>
+      <c r="I61">
+        <v>1</v>
       </c>
       <c r="J61" s="1">
         <v>24.95</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="L61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>521</v>
+      </c>
+      <c r="B62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" t="s">
         <v>254</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D62" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
-      <c r="I62" s="1">
-        <v>13.24</v>
+      <c r="I62">
+        <v>1</v>
       </c>
       <c r="J62" s="1">
         <v>13.24</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="1">
+        <v>13.24</v>
+      </c>
+      <c r="L62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>520</v>
+      </c>
+      <c r="B63" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" t="s">
         <v>257</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>258</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D63" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63" s="1">
-        <v>4.49</v>
+      <c r="I63">
+        <v>1</v>
       </c>
       <c r="J63" s="1">
         <v>4.49</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="L63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" t="s">
         <v>261</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>262</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>263</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
       <c r="G64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64" s="1">
         <v>6.8</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>27.2</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>521</v>
+      </c>
+      <c r="B65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" t="s">
         <v>266</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C65" t="s">
-        <v>248</v>
-      </c>
-      <c r="D65" t="s">
-        <v>249</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65" s="1">
-        <v>41.95</v>
+      <c r="I65">
+        <v>1</v>
       </c>
       <c r="J65" s="1">
         <v>41.95</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1">
+        <v>41.95</v>
+      </c>
+      <c r="L65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>521</v>
+      </c>
+      <c r="B66" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" t="s">
         <v>269</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>270</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D66" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66" s="1">
-        <v>15</v>
+      <c r="I66">
+        <v>1</v>
       </c>
       <c r="J66" s="1">
         <v>15</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="1">
+        <v>15</v>
+      </c>
+      <c r="L66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" t="s">
         <v>273</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>274</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D67" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
-      <c r="I67" s="1">
-        <v>9.98</v>
+      <c r="I67">
+        <v>1</v>
       </c>
       <c r="J67" s="1">
         <v>9.98</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="K67" s="1">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>526</v>
+      </c>
+      <c r="B68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" t="s">
         <v>277</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>278</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D68" t="s">
-        <v>193</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
-      <c r="I68" s="1">
-        <v>7.99</v>
+      <c r="I68">
+        <v>1</v>
       </c>
       <c r="J68" s="1">
         <v>7.99</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="L68" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>520</v>
+      </c>
+      <c r="B69" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" t="s">
         <v>281</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>282</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D69" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
       <c r="G69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>6</v>
       </c>
-      <c r="I69" s="1">
-        <v>34.95</v>
+      <c r="I69">
+        <v>6</v>
       </c>
       <c r="J69" s="1">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="K69" s="1">
         <v>209.7</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>521</v>
+      </c>
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" t="s">
         <v>285</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>286</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>287</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
       <c r="G70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>4</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70" s="1">
         <v>39.99</v>
       </c>
-      <c r="J70" s="1">
+      <c r="K70" s="1">
         <v>159.96</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
         <v>291</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>292</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
+        <v>263</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D71" t="s">
-        <v>264</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
       <c r="G71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>4</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71" s="1">
         <v>55.5</v>
       </c>
-      <c r="J71" s="1">
+      <c r="K71" s="1">
         <v>222</v>
       </c>
-      <c r="K71" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>521</v>
+      </c>
+      <c r="B72" t="s">
+        <v>294</v>
+      </c>
+      <c r="C72" t="s">
         <v>295</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E72" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D72" t="s">
-        <v>193</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
-      <c r="I72" s="1">
-        <v>6.99</v>
+      <c r="I72">
+        <v>1</v>
       </c>
       <c r="J72" s="1">
         <v>6.99</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="L72" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>521</v>
+      </c>
+      <c r="B73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" t="s">
         <v>298</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73">
+        <v>585440</v>
+      </c>
+      <c r="E73" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C73">
-        <v>585440</v>
-      </c>
-      <c r="D73" t="s">
-        <v>288</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
       <c r="G73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1">
         <v>2.99</v>
       </c>
-      <c r="J73" s="1">
+      <c r="K73" s="1">
         <v>5.98</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>521</v>
+      </c>
+      <c r="B74" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
+      <c r="C74" t="s">
         <v>302</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74">
+        <v>535110</v>
+      </c>
+      <c r="E74" t="s">
+        <v>287</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C74">
-        <v>535110</v>
-      </c>
-      <c r="D74" t="s">
-        <v>288</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
       <c r="G74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>8</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
+        <v>8</v>
+      </c>
+      <c r="J74" s="1">
         <v>5.99</v>
       </c>
-      <c r="J74" s="1">
+      <c r="K74" s="1">
         <v>47.92</v>
       </c>
-      <c r="K74" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>521</v>
+      </c>
+      <c r="B75" t="s">
+        <v>304</v>
+      </c>
+      <c r="C75" t="s">
         <v>305</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75">
+        <v>535118</v>
+      </c>
+      <c r="E75" t="s">
+        <v>287</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C75">
-        <v>535118</v>
-      </c>
-      <c r="D75" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
       <c r="G75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>6</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
+        <v>6</v>
+      </c>
+      <c r="J75" s="1">
         <v>6.99</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K75" s="1">
         <v>41.94</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>521</v>
+      </c>
+      <c r="B76" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
+      <c r="C76" t="s">
         <v>309</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76">
+        <v>545588</v>
+      </c>
+      <c r="E76" t="s">
+        <v>287</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C76">
-        <v>545588</v>
-      </c>
-      <c r="D76" t="s">
-        <v>288</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
       <c r="G76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>4</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76" s="1">
         <v>5.99</v>
       </c>
-      <c r="J76" s="1">
+      <c r="K76" s="1">
         <v>23.96</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>521</v>
+      </c>
+      <c r="B77" t="s">
+        <v>311</v>
+      </c>
+      <c r="C77" t="s">
         <v>312</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77">
+        <v>545600</v>
+      </c>
+      <c r="E77" t="s">
+        <v>287</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C77">
-        <v>545600</v>
-      </c>
-      <c r="D77" t="s">
-        <v>288</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77" s="1">
         <v>5.99</v>
       </c>
-      <c r="J77" s="1">
+      <c r="K77" s="1">
         <v>17.97</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>521</v>
+      </c>
+      <c r="B78" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" t="s">
+      <c r="C78" t="s">
         <v>316</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78">
+        <v>545608</v>
+      </c>
+      <c r="E78" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C78">
-        <v>545608</v>
-      </c>
-      <c r="D78" t="s">
-        <v>288</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
       <c r="G78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>6</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="J78" s="1">
         <v>5.99</v>
       </c>
-      <c r="J78" s="1">
+      <c r="K78" s="1">
         <v>35.94</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>521</v>
+      </c>
+      <c r="B79" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" t="s">
         <v>319</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79">
+        <v>634070</v>
+      </c>
+      <c r="E79" t="s">
+        <v>287</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C79">
-        <v>634070</v>
-      </c>
-      <c r="D79" t="s">
-        <v>288</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
       <c r="G79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>4</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79" s="1">
         <v>1.79</v>
       </c>
-      <c r="J79" s="1">
+      <c r="K79" s="1">
         <v>7.16</v>
       </c>
-      <c r="K79" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" t="s">
+      <c r="L79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" t="s">
         <v>322</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>323</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
-      <c r="I80" s="1">
-        <v>25.74</v>
+      <c r="I80">
+        <v>1</v>
       </c>
       <c r="J80" s="1">
         <v>25.74</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="1">
+        <v>25.74</v>
+      </c>
+      <c r="L80" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>521</v>
+      </c>
+      <c r="B81" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81" t="s">
         <v>326</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81">
+        <v>585470</v>
+      </c>
+      <c r="E81" t="s">
+        <v>287</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C81">
-        <v>585470</v>
-      </c>
-      <c r="D81" t="s">
-        <v>288</v>
-      </c>
-      <c r="E81" s="5" t="s">
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>16</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="K81" s="1">
+        <v>47.92</v>
+      </c>
+      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>521</v>
+      </c>
+      <c r="B82" t="s">
         <v>328</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>16</v>
-      </c>
-      <c r="H81">
-        <v>8</v>
-      </c>
-      <c r="I81" s="1">
-        <v>5.99</v>
-      </c>
-      <c r="J81" s="1">
-        <v>47.92</v>
-      </c>
-      <c r="K81" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
         <v>329</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82">
+        <v>635254</v>
+      </c>
+      <c r="E82" t="s">
+        <v>287</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C82">
-        <v>635254</v>
-      </c>
-      <c r="D82" t="s">
-        <v>288</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
       <c r="G82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>5</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82" s="1">
         <v>2.19</v>
       </c>
-      <c r="J82" s="1">
+      <c r="K82" s="1">
         <v>10.95</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>521</v>
+      </c>
+      <c r="B83" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
         <v>333</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83">
+        <v>635252</v>
+      </c>
+      <c r="E83" t="s">
+        <v>287</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C83">
-        <v>635252</v>
-      </c>
-      <c r="D83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
-      <c r="I83" s="1">
-        <v>1.59</v>
+      <c r="I83">
+        <v>1</v>
       </c>
       <c r="J83" s="1">
         <v>1.59</v>
       </c>
-      <c r="K83" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="K83" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="L83" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" t="s">
         <v>336</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84">
+        <v>585442</v>
+      </c>
+      <c r="E84" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C84">
-        <v>585442</v>
-      </c>
-      <c r="D84" t="s">
-        <v>288</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
       <c r="G84">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>18</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84">
+        <v>18</v>
+      </c>
+      <c r="J84" s="1">
         <v>3.99</v>
       </c>
-      <c r="J84" s="1">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="K84" s="1">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="L84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>521</v>
+      </c>
+      <c r="B85" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
         <v>340</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85">
+        <v>585546</v>
+      </c>
+      <c r="E85" t="s">
+        <v>287</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C85">
-        <v>585546</v>
-      </c>
-      <c r="D85" t="s">
-        <v>288</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" s="1">
         <v>5.99</v>
       </c>
-      <c r="J85" s="1">
+      <c r="K85" s="1">
         <v>11.98</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>521</v>
+      </c>
+      <c r="B86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" t="s">
         <v>343</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86">
+        <v>585404</v>
+      </c>
+      <c r="E86" t="s">
+        <v>287</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C86">
-        <v>585404</v>
-      </c>
-      <c r="D86" t="s">
-        <v>288</v>
-      </c>
-      <c r="E86" s="5" t="s">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="K86" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="L86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>521</v>
+      </c>
+      <c r="B87" t="s">
         <v>345</v>
       </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <v>8</v>
-      </c>
-      <c r="H86">
-        <v>4</v>
-      </c>
-      <c r="I86" s="1">
-        <v>2.39</v>
-      </c>
-      <c r="J86" s="1">
-        <v>9.56</v>
-      </c>
-      <c r="K86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" t="s">
+      <c r="C87" t="s">
         <v>346</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>347</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
+        <v>287</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D87" t="s">
-        <v>288</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
       <c r="G87">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>12</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87">
+        <v>12</v>
+      </c>
+      <c r="J87" s="1">
         <v>4.99</v>
       </c>
-      <c r="J87" s="1">
+      <c r="K87" s="1">
         <v>59.88</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>524</v>
+      </c>
+      <c r="B88" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
         <v>351</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88">
+        <v>545512</v>
+      </c>
+      <c r="E88" t="s">
+        <v>287</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C88">
-        <v>545512</v>
-      </c>
-      <c r="D88" t="s">
-        <v>288</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" s="1">
         <v>9.99</v>
       </c>
-      <c r="J88" s="1">
+      <c r="K88" s="1">
         <v>19.98</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>521</v>
+      </c>
+      <c r="B89" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="s">
+      <c r="C89" t="s">
         <v>355</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89">
+        <v>545680</v>
+      </c>
+      <c r="E89" t="s">
+        <v>287</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C89">
-        <v>545680</v>
-      </c>
-      <c r="D89" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
       <c r="G89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>6</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89">
+        <v>6</v>
+      </c>
+      <c r="J89" s="1">
         <v>6.99</v>
       </c>
-      <c r="J89" s="1">
+      <c r="K89" s="1">
         <v>41.94</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>521</v>
+      </c>
+      <c r="B90" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" t="s">
         <v>358</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>359</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
+        <v>287</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D90" t="s">
-        <v>288</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
       <c r="G90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>4</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90" s="1">
         <v>5.2</v>
       </c>
-      <c r="J90" s="1">
+      <c r="K90" s="1">
         <v>20.8</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>521</v>
+      </c>
+      <c r="B91" t="s">
+        <v>361</v>
+      </c>
+      <c r="C91" t="s">
         <v>362</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91">
+        <v>615362</v>
+      </c>
+      <c r="E91" t="s">
+        <v>287</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C91">
-        <v>615362</v>
-      </c>
-      <c r="D91" t="s">
-        <v>288</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
       <c r="G91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91" s="1">
         <v>7.99</v>
       </c>
-      <c r="J91" s="1">
+      <c r="K91" s="1">
         <v>31.96</v>
       </c>
-      <c r="K91" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" t="s">
+      <c r="L91" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" t="s">
         <v>365</v>
       </c>
-      <c r="B92" t="s">
+      <c r="E92" t="s">
         <v>366</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
-      <c r="I92" s="1">
-        <v>15.25</v>
+      <c r="I92">
+        <v>1</v>
       </c>
       <c r="J92" s="1">
         <v>15.25</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
+      <c r="K92" s="1">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" t="s">
         <v>369</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>370</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D93" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
-      <c r="I93" s="1">
-        <v>5.28</v>
+      <c r="I93">
+        <v>1</v>
       </c>
       <c r="J93" s="1">
         <v>5.28</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="L93" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>521</v>
+      </c>
+      <c r="B94" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" t="s">
         <v>373</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94">
+        <v>585443</v>
+      </c>
+      <c r="E94" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C94">
-        <v>585443</v>
-      </c>
-      <c r="D94" t="s">
-        <v>288</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
       <c r="G94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>4</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94" s="1">
         <v>4.49</v>
       </c>
-      <c r="J94" s="1">
+      <c r="K94" s="1">
         <v>17.96</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>520</v>
+      </c>
+      <c r="B95" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" t="s">
         <v>376</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E95" t="s">
         <v>377</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95" s="1">
+        <v>25.27</v>
+      </c>
+      <c r="K95" s="1">
+        <v>75.81</v>
+      </c>
+      <c r="L95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>379</v>
       </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95">
-        <v>6</v>
-      </c>
-      <c r="H95">
-        <v>3</v>
-      </c>
-      <c r="I95" s="1">
-        <v>25.27</v>
-      </c>
-      <c r="J95" s="1">
-        <v>75.81</v>
-      </c>
-      <c r="K95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="s">
+      <c r="C96" t="s">
         <v>380</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>381</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
       <c r="G96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>4</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96" s="1">
         <v>12.9</v>
       </c>
-      <c r="J96" s="1">
+      <c r="K96" s="1">
         <v>51.6</v>
       </c>
-      <c r="K96" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="s">
+      <c r="L96" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>383</v>
+      </c>
+      <c r="C97" t="s">
         <v>384</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>385</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
+        <v>193</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="D97" t="s">
-        <v>193</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
       <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97" s="1">
-        <v>9.25</v>
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
       </c>
       <c r="J97" s="1">
         <v>9.25</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="L97" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" t="s">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" t="s">
         <v>388</v>
       </c>
-      <c r="B98" t="s">
-        <v>389</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
+        <v>381</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
-      <c r="I98" s="1">
-        <v>75.8</v>
+      <c r="I98">
+        <v>1</v>
       </c>
       <c r="J98" s="1">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" t="s">
+      <c r="K98" s="1">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>389</v>
+      </c>
+      <c r="C99" t="s">
         <v>390</v>
       </c>
-      <c r="B99" t="s">
+      <c r="E99" t="s">
+        <v>193</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D99" t="s">
-        <v>193</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
-      <c r="I99" s="1">
-        <v>6.49</v>
+      <c r="I99">
+        <v>1</v>
       </c>
       <c r="J99" s="1">
         <v>6.49</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="L99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>521</v>
+      </c>
+      <c r="B100" t="s">
+        <v>392</v>
+      </c>
+      <c r="C100" t="s">
         <v>393</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100">
+        <v>585006</v>
+      </c>
+      <c r="E100" t="s">
+        <v>287</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C100">
-        <v>585006</v>
-      </c>
-      <c r="D100" t="s">
-        <v>288</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
       <c r="G100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
-      <c r="I100" s="1">
-        <v>16.99</v>
+      <c r="I100">
+        <v>2</v>
       </c>
       <c r="J100" s="1">
-        <v>33.98</v>
-      </c>
-      <c r="K100" t="s">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="K100" s="1">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="L100" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>395</v>
+      </c>
+      <c r="C101" t="s">
         <v>396</v>
       </c>
-      <c r="B101" t="s">
+      <c r="E101" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D101" t="s">
-        <v>193</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
-      <c r="I101" s="1">
-        <v>5.42</v>
+      <c r="I101">
+        <v>1</v>
       </c>
       <c r="J101" s="1">
         <v>5.42</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="L101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>521</v>
+      </c>
+      <c r="B102" t="s">
+        <v>398</v>
+      </c>
+      <c r="C102" t="s">
         <v>399</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102">
+        <v>585004</v>
+      </c>
+      <c r="E102" t="s">
+        <v>287</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C102">
-        <v>585004</v>
-      </c>
-      <c r="D102" t="s">
-        <v>288</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" s="1">
         <v>13.99</v>
       </c>
-      <c r="J102" s="1">
+      <c r="K102" s="1">
         <v>27.98</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>521</v>
+      </c>
+      <c r="B103" t="s">
+        <v>401</v>
+      </c>
+      <c r="C103" t="s">
         <v>402</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103">
+        <v>625100</v>
+      </c>
+      <c r="E103" t="s">
+        <v>287</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C103">
-        <v>625100</v>
-      </c>
-      <c r="D103" t="s">
-        <v>288</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
       <c r="G103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>4</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103" s="1">
         <v>7.99</v>
       </c>
-      <c r="J103" s="1">
+      <c r="K103" s="1">
         <v>31.96</v>
       </c>
-      <c r="K103" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" t="s">
+      <c r="L103" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>404</v>
+      </c>
+      <c r="C104" t="s">
         <v>405</v>
       </c>
-      <c r="B104" t="s">
+      <c r="E104" t="s">
+        <v>366</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D104" t="s">
-        <v>367</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
-      <c r="I104" s="1">
-        <v>7.93</v>
+      <c r="I104">
+        <v>1</v>
       </c>
       <c r="J104" s="1">
         <v>7.93</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="L104" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" t="s">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>407</v>
+      </c>
+      <c r="C105" t="s">
         <v>408</v>
       </c>
-      <c r="B105" t="s">
-        <v>409</v>
-      </c>
-      <c r="D105" t="s">
-        <v>367</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
+      <c r="E105" t="s">
+        <v>366</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -5477,63 +5764,63 @@
       <c r="H105">
         <v>1</v>
       </c>
-      <c r="I105" s="1">
-        <v>8.42</v>
+      <c r="I105">
+        <v>1</v>
       </c>
       <c r="J105" s="1">
         <v>8.42</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="L105" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" t="s">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" t="s">
         <v>410</v>
       </c>
-      <c r="B106" t="s">
-        <v>411</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
+        <v>381</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
       <c r="G106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" s="1">
         <v>12.5</v>
       </c>
-      <c r="J106" s="1">
+      <c r="K106" s="1">
         <v>25</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" t="s">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" t="s">
         <v>412</v>
       </c>
-      <c r="B107" t="s">
-        <v>413</v>
-      </c>
-      <c r="D107" t="s">
-        <v>367</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
+      <c r="E107" t="s">
+        <v>366</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -5541,63 +5828,63 @@
       <c r="H107">
         <v>1</v>
       </c>
-      <c r="I107" s="1">
-        <v>7.63</v>
+      <c r="I107">
+        <v>1</v>
       </c>
       <c r="J107" s="1">
         <v>7.63</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="L107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" t="s">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>413</v>
+      </c>
+      <c r="C108" t="s">
         <v>414</v>
       </c>
-      <c r="B108" t="s">
-        <v>415</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
+        <v>381</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108" s="1">
-        <v>29.8</v>
+      <c r="I108">
+        <v>1</v>
       </c>
       <c r="J108" s="1">
         <v>29.8</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K108" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="L108" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" t="s">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>415</v>
+      </c>
+      <c r="C109" t="s">
         <v>416</v>
       </c>
-      <c r="B109" t="s">
-        <v>417</v>
-      </c>
-      <c r="D109" t="s">
-        <v>367</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
+      <c r="E109" t="s">
+        <v>366</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -5605,567 +5892,594 @@
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109" s="1">
-        <v>7.76</v>
+      <c r="I109">
+        <v>1</v>
       </c>
       <c r="J109" s="1">
         <v>7.76</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K109" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="L109" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>521</v>
+      </c>
+      <c r="B110" t="s">
+        <v>417</v>
+      </c>
+      <c r="C110" t="s">
         <v>418</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110">
+        <v>585444</v>
+      </c>
+      <c r="E110" t="s">
+        <v>287</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C110">
-        <v>585444</v>
-      </c>
-      <c r="D110" t="s">
-        <v>288</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
       <c r="G110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>4</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110">
+        <v>4</v>
+      </c>
+      <c r="J110" s="1">
         <v>4.99</v>
       </c>
-      <c r="J110" s="1">
+      <c r="K110" s="1">
         <v>19.96</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>521</v>
+      </c>
+      <c r="B111" t="s">
+        <v>420</v>
+      </c>
+      <c r="C111" t="s">
         <v>421</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111">
+        <v>585450</v>
+      </c>
+      <c r="E111" t="s">
+        <v>287</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C111">
-        <v>585450</v>
-      </c>
-      <c r="D111" t="s">
-        <v>288</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" s="1">
         <v>7.99</v>
       </c>
-      <c r="J111" s="1">
+      <c r="K111" s="1">
         <v>15.98</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>521</v>
+      </c>
+      <c r="B112" t="s">
+        <v>423</v>
+      </c>
+      <c r="C112" t="s">
         <v>424</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112">
+        <v>545532</v>
+      </c>
+      <c r="E112" t="s">
+        <v>287</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C112">
-        <v>545532</v>
-      </c>
-      <c r="D112" t="s">
-        <v>288</v>
-      </c>
-      <c r="E112" s="5" t="s">
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="I112">
+        <v>15</v>
+      </c>
+      <c r="J112" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="K112" s="1">
+        <v>59.85</v>
+      </c>
+      <c r="L112" t="s">
         <v>426</v>
       </c>
-      <c r="F112">
-        <v>2</v>
-      </c>
-      <c r="G112">
-        <v>30</v>
-      </c>
-      <c r="H112">
-        <v>15</v>
-      </c>
-      <c r="I112" s="1">
-        <v>3.99</v>
-      </c>
-      <c r="J112" s="1">
-        <v>59.85</v>
-      </c>
-      <c r="K112" t="s">
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>521</v>
+      </c>
+      <c r="B113" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" t="s">
+      <c r="C113" t="s">
         <v>428</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113">
+        <v>585592</v>
+      </c>
+      <c r="E113" t="s">
+        <v>287</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C113">
-        <v>585592</v>
-      </c>
-      <c r="D113" t="s">
-        <v>288</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
       <c r="G113">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>8</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113">
+        <v>8</v>
+      </c>
+      <c r="J113" s="1">
         <v>2.89</v>
       </c>
-      <c r="J113" s="1">
+      <c r="K113" s="1">
         <v>23.12</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>521</v>
+      </c>
+      <c r="B114" t="s">
+        <v>430</v>
+      </c>
+      <c r="C114" t="s">
         <v>431</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114">
+        <v>585468</v>
+      </c>
+      <c r="E114" t="s">
+        <v>287</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C114">
-        <v>585468</v>
-      </c>
-      <c r="D114" t="s">
-        <v>288</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="I114" s="1">
-        <v>1.49</v>
+      <c r="I114">
+        <v>1</v>
       </c>
       <c r="J114" s="1">
         <v>1.49</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="L114" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>521</v>
+      </c>
+      <c r="B115" t="s">
+        <v>433</v>
+      </c>
+      <c r="C115" t="s">
         <v>434</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115">
+        <v>555174</v>
+      </c>
+      <c r="E115" t="s">
+        <v>287</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D115" t="s">
-        <v>288</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
       <c r="G115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>4</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115">
+        <v>4</v>
+      </c>
+      <c r="J115" s="1">
         <v>4.99</v>
       </c>
-      <c r="J115" s="1">
+      <c r="K115" s="1">
         <v>19.96</v>
       </c>
-      <c r="K115" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" t="s">
+      <c r="L115" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>436</v>
+      </c>
+      <c r="C116" t="s">
         <v>437</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>438</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D116" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="F116">
+      <c r="G116">
         <v>100</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>28</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" s="1">
-        <v>1.17</v>
+      <c r="I116">
+        <v>1</v>
       </c>
       <c r="J116" s="1">
         <v>1.17</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="L116" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" t="s">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>440</v>
+      </c>
+      <c r="C117" t="s">
         <v>441</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>442</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D117" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F117">
+      <c r="G117">
         <v>100</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>24</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117" s="1">
-        <v>1.4</v>
+      <c r="I117">
+        <v>1</v>
       </c>
       <c r="J117" s="1">
         <v>1.4</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L117" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" t="s">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>444</v>
+      </c>
+      <c r="C118" t="s">
         <v>445</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>446</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="5" t="s">
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118">
+        <v>20</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="K118" s="1">
+        <v>10.36</v>
+      </c>
+      <c r="L118" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>448</v>
       </c>
-      <c r="F118">
-        <v>5</v>
-      </c>
-      <c r="G118">
-        <v>20</v>
-      </c>
-      <c r="H118">
-        <v>4</v>
-      </c>
-      <c r="I118" s="1">
-        <v>2.59</v>
-      </c>
-      <c r="J118" s="1">
-        <v>10.36</v>
-      </c>
-      <c r="K118" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" t="s">
+      <c r="E119" t="s">
+        <v>193</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D119" t="s">
-        <v>193</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
-      <c r="I119" s="1">
-        <v>12.99</v>
+      <c r="I119">
+        <v>1</v>
       </c>
       <c r="J119" s="1">
         <v>12.99</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" t="s">
+      <c r="K119" s="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>450</v>
+      </c>
+      <c r="E120" t="s">
+        <v>193</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D120" t="s">
-        <v>193</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
-      <c r="I120" s="1">
-        <v>25.99</v>
+      <c r="I120">
+        <v>1</v>
       </c>
       <c r="J120" s="1">
         <v>25.99</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" t="s">
+      <c r="K120" s="1">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>452</v>
+      </c>
+      <c r="C121" t="s">
         <v>453</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>454</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D121" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
       <c r="G121">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>56</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121">
+        <v>56</v>
+      </c>
+      <c r="J121" s="1">
         <v>0.23</v>
       </c>
-      <c r="J121" s="1">
+      <c r="K121" s="1">
         <v>12.88</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>521</v>
+      </c>
+      <c r="B122" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" t="s">
+      <c r="C122" t="s">
         <v>458</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122">
+        <v>633126</v>
+      </c>
+      <c r="E122" t="s">
+        <v>287</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C122">
-        <v>633126</v>
-      </c>
-      <c r="D122" t="s">
-        <v>288</v>
-      </c>
-      <c r="E122" s="5" t="s">
+      <c r="G122">
+        <v>4</v>
+      </c>
+      <c r="H122">
+        <v>8</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="K122" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="L122" t="s">
         <v>460</v>
       </c>
-      <c r="F122">
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>521</v>
+      </c>
+      <c r="B123" t="s">
+        <v>461</v>
+      </c>
+      <c r="C123" t="s">
+        <v>462</v>
+      </c>
+      <c r="D123">
+        <v>633134</v>
+      </c>
+      <c r="E123" t="s">
+        <v>287</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G123">
         <v>4</v>
       </c>
-      <c r="G122">
-        <v>8</v>
-      </c>
-      <c r="H122">
-        <v>2</v>
-      </c>
-      <c r="I122" s="1">
-        <v>1.89</v>
-      </c>
-      <c r="J122" s="1">
-        <v>3.78</v>
-      </c>
-      <c r="K122" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" t="s">
-        <v>462</v>
-      </c>
-      <c r="B123" t="s">
-        <v>463</v>
-      </c>
-      <c r="C123">
-        <v>633134</v>
-      </c>
-      <c r="D123" t="s">
-        <v>288</v>
-      </c>
-      <c r="E123" s="5" t="s">
+      <c r="H123">
+        <v>16</v>
+      </c>
+      <c r="I123">
+        <v>4</v>
+      </c>
+      <c r="J123" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="K123" s="1">
+        <v>13.56</v>
+      </c>
+      <c r="L123" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>464</v>
       </c>
-      <c r="F123">
-        <v>4</v>
-      </c>
-      <c r="G123">
-        <v>16</v>
-      </c>
-      <c r="H123">
-        <v>4</v>
-      </c>
-      <c r="I123" s="1">
-        <v>3.39</v>
-      </c>
-      <c r="J123" s="1">
-        <v>13.56</v>
-      </c>
-      <c r="K123" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" t="s">
+      <c r="C124" t="s">
         <v>465</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>466</v>
       </c>
-      <c r="C124" t="s">
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D124" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
-      <c r="I124" s="1">
-        <v>0.23</v>
+      <c r="I124">
+        <v>1</v>
       </c>
       <c r="J124" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" t="s">
+      <c r="K124" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>468</v>
+      </c>
+      <c r="C125" t="s">
         <v>469</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>470</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D125" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
-      <c r="I125" s="1">
-        <v>0.27</v>
+      <c r="I125">
+        <v>1</v>
       </c>
       <c r="J125" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" t="s">
+      <c r="K125" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>472</v>
+      </c>
+      <c r="C126" t="s">
         <v>473</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>474</v>
       </c>
-      <c r="C126" t="s">
-        <v>475</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>18</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
+      <c r="F126" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -6173,463 +6487,473 @@
       <c r="H126">
         <v>1</v>
       </c>
-      <c r="I126" s="1">
-        <v>0.37</v>
+      <c r="I126">
+        <v>1</v>
       </c>
       <c r="J126" s="1">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" t="s">
+      <c r="K126" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>475</v>
+      </c>
+      <c r="C127" t="s">
         <v>476</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>477</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D127" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
-      <c r="I127" s="1">
-        <v>0.64</v>
+      <c r="I127">
+        <v>1</v>
       </c>
       <c r="J127" s="1">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" t="s">
+      <c r="K127" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>479</v>
+      </c>
+      <c r="C128" t="s">
         <v>480</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>481</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D128" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
       <c r="G128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>4</v>
       </c>
-      <c r="I128" s="1">
-        <v>1</v>
+      <c r="I128">
+        <v>4</v>
       </c>
       <c r="J128" s="1">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1">
         <v>4</v>
       </c>
-      <c r="K128" t="s">
+      <c r="L128" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" t="s">
+    <row r="129" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>483</v>
+      </c>
+      <c r="C129" t="s">
         <v>484</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>485</v>
       </c>
-      <c r="C129" t="s">
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
       <c r="G129">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>8</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I129">
+        <v>8</v>
+      </c>
+      <c r="J129" s="1">
         <v>0.59</v>
       </c>
-      <c r="J129" s="1">
+      <c r="K129" s="1">
         <v>4.72</v>
       </c>
-      <c r="K129" t="s">
+      <c r="L129" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" t="s">
+    <row r="130" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>487</v>
+      </c>
+      <c r="C130" t="s">
         <v>488</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" t="s">
         <v>489</v>
       </c>
-      <c r="C130" t="s">
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
       <c r="G130">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>20</v>
       </c>
-      <c r="I130" s="1">
+      <c r="I130">
+        <v>20</v>
+      </c>
+      <c r="J130" s="1">
         <v>0.41</v>
       </c>
-      <c r="J130" s="1">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="K130" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L130" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" t="s">
+    <row r="131" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>491</v>
+      </c>
+      <c r="C131" t="s">
         <v>492</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>493</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F131">
+      <c r="G131">
         <v>100</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>8</v>
       </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131" s="1">
-        <v>10.82</v>
+      <c r="I131">
+        <v>1</v>
       </c>
       <c r="J131" s="1">
         <v>10.82</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" s="1">
+        <v>10.82</v>
+      </c>
+      <c r="L131" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" t="s">
+    <row r="132" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>495</v>
+      </c>
+      <c r="C132" t="s">
         <v>496</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" t="s">
         <v>497</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D132" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="F132">
+      <c r="G132">
         <v>100</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>4</v>
       </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132" s="1">
-        <v>12.92</v>
+      <c r="I132">
+        <v>1</v>
       </c>
       <c r="J132" s="1">
         <v>12.92</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="1">
+        <v>12.92</v>
+      </c>
+      <c r="L132" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" t="s">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>499</v>
+      </c>
+      <c r="C133" t="s">
         <v>500</v>
       </c>
-      <c r="B133" t="s">
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
         <v>501</v>
       </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="K133" t="s">
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" t="s">
+      <c r="C134" t="s">
         <v>503</v>
       </c>
-      <c r="B134" t="s">
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
         <v>504</v>
       </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="K134" t="s">
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" t="s">
+      <c r="C135" t="s">
         <v>506</v>
       </c>
-      <c r="B135" t="s">
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>507</v>
       </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="K135" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" t="s">
+      <c r="C136" t="s">
         <v>508</v>
       </c>
-      <c r="B136" t="s">
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
         <v>509</v>
       </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="K136" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" t="s">
+      <c r="C137" t="s">
         <v>510</v>
       </c>
-      <c r="B137" t="s">
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
         <v>511</v>
       </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="K137" t="s">
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" t="s">
+      <c r="C138" t="s">
         <v>513</v>
       </c>
-      <c r="B138" t="s">
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
         <v>514</v>
       </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="K138" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" t="s">
+      <c r="C139" t="s">
         <v>515</v>
       </c>
-      <c r="B139" t="s">
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
         <v>516</v>
       </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="K139" t="s">
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" t="s">
+      <c r="C140" t="s">
         <v>518</v>
       </c>
-      <c r="B140" t="s">
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
         <v>519</v>
       </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="K140" t="s">
-        <v>520</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K4"/>
+  <autoFilter ref="B4:L140" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Amazon"/>
+        <filter val="BatterySpace"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E10" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E12" r:id="rId8"/>
-    <hyperlink ref="E13" r:id="rId9"/>
-    <hyperlink ref="E14" r:id="rId10"/>
-    <hyperlink ref="E15" r:id="rId11"/>
-    <hyperlink ref="E16" r:id="rId12"/>
-    <hyperlink ref="E17" r:id="rId13"/>
-    <hyperlink ref="E18" r:id="rId14"/>
-    <hyperlink ref="E19" r:id="rId15"/>
-    <hyperlink ref="E20" r:id="rId16"/>
-    <hyperlink ref="E21" r:id="rId17"/>
-    <hyperlink ref="E22" r:id="rId18"/>
-    <hyperlink ref="E23" r:id="rId19"/>
-    <hyperlink ref="E24" r:id="rId20"/>
-    <hyperlink ref="E25" r:id="rId21"/>
-    <hyperlink ref="E26" r:id="rId22"/>
-    <hyperlink ref="E27" r:id="rId23"/>
-    <hyperlink ref="E28" r:id="rId24"/>
-    <hyperlink ref="E29" r:id="rId25"/>
-    <hyperlink ref="E30" r:id="rId26"/>
-    <hyperlink ref="E31" r:id="rId27"/>
-    <hyperlink ref="E32" r:id="rId28"/>
-    <hyperlink ref="E33" r:id="rId29"/>
-    <hyperlink ref="E34" r:id="rId30"/>
-    <hyperlink ref="E35" r:id="rId31"/>
-    <hyperlink ref="E36" r:id="rId32"/>
-    <hyperlink ref="E37" r:id="rId33"/>
-    <hyperlink ref="E38" r:id="rId34"/>
-    <hyperlink ref="E39" r:id="rId35"/>
-    <hyperlink ref="E40" r:id="rId36"/>
-    <hyperlink ref="E41" r:id="rId37"/>
-    <hyperlink ref="E42" r:id="rId38"/>
-    <hyperlink ref="E43" r:id="rId39"/>
-    <hyperlink ref="E44" r:id="rId40"/>
-    <hyperlink ref="E45" r:id="rId41"/>
-    <hyperlink ref="E46" r:id="rId42"/>
-    <hyperlink ref="E47" r:id="rId43"/>
-    <hyperlink ref="E48" r:id="rId44"/>
-    <hyperlink ref="E49" r:id="rId45"/>
-    <hyperlink ref="E50" r:id="rId46"/>
-    <hyperlink ref="E51" r:id="rId47"/>
-    <hyperlink ref="E52" r:id="rId48"/>
-    <hyperlink ref="E53" r:id="rId49"/>
-    <hyperlink ref="E54" r:id="rId50"/>
-    <hyperlink ref="E55" r:id="rId51"/>
-    <hyperlink ref="E56" r:id="rId52"/>
-    <hyperlink ref="E57" r:id="rId53"/>
-    <hyperlink ref="E58" r:id="rId54"/>
-    <hyperlink ref="E59" r:id="rId55"/>
-    <hyperlink ref="E60" r:id="rId56"/>
-    <hyperlink ref="E61" r:id="rId57"/>
-    <hyperlink ref="E62" r:id="rId58"/>
-    <hyperlink ref="E63" r:id="rId59"/>
-    <hyperlink ref="E64" r:id="rId60"/>
-    <hyperlink ref="E65" r:id="rId61"/>
-    <hyperlink ref="E66" r:id="rId62"/>
-    <hyperlink ref="E67" r:id="rId63"/>
-    <hyperlink ref="E68" r:id="rId64"/>
-    <hyperlink ref="E69" r:id="rId65"/>
-    <hyperlink ref="E70" r:id="rId66"/>
-    <hyperlink ref="E71" r:id="rId67"/>
-    <hyperlink ref="E72" r:id="rId68"/>
-    <hyperlink ref="E73" r:id="rId69"/>
-    <hyperlink ref="E74" r:id="rId70"/>
-    <hyperlink ref="E75" r:id="rId71"/>
-    <hyperlink ref="E76" r:id="rId72" location="348=95"/>
-    <hyperlink ref="E77" r:id="rId73" location="348=107"/>
-    <hyperlink ref="E78" r:id="rId74" location="348=96"/>
-    <hyperlink ref="E79" r:id="rId75" location="371=276"/>
-    <hyperlink ref="E80" r:id="rId76"/>
-    <hyperlink ref="E81" r:id="rId77"/>
-    <hyperlink ref="E82" r:id="rId78" location="371=455"/>
-    <hyperlink ref="E83" r:id="rId79" location="371=246"/>
-    <hyperlink ref="E84" r:id="rId80"/>
-    <hyperlink ref="E85" r:id="rId81"/>
-    <hyperlink ref="E86" r:id="rId82"/>
-    <hyperlink ref="E87" r:id="rId83" location="368=229"/>
-    <hyperlink ref="E88" r:id="rId84"/>
-    <hyperlink ref="E89" r:id="rId85"/>
-    <hyperlink ref="E90" r:id="rId86" location="199=15"/>
-    <hyperlink ref="E91" r:id="rId87"/>
-    <hyperlink ref="E92" r:id="rId88"/>
-    <hyperlink ref="E93" r:id="rId89"/>
-    <hyperlink ref="E94" r:id="rId90"/>
-    <hyperlink ref="E95" r:id="rId91"/>
-    <hyperlink ref="E96" r:id="rId92"/>
-    <hyperlink ref="E97" r:id="rId93"/>
-    <hyperlink ref="E98" r:id="rId94"/>
-    <hyperlink ref="E99" r:id="rId95"/>
-    <hyperlink ref="E100" r:id="rId96"/>
-    <hyperlink ref="E101" r:id="rId97"/>
-    <hyperlink ref="E102" r:id="rId98"/>
-    <hyperlink ref="E103" r:id="rId99"/>
-    <hyperlink ref="E104" r:id="rId100"/>
-    <hyperlink ref="E105" r:id="rId101"/>
-    <hyperlink ref="E106" r:id="rId102"/>
-    <hyperlink ref="E107" r:id="rId103"/>
-    <hyperlink ref="E108" r:id="rId104"/>
-    <hyperlink ref="E109" r:id="rId105"/>
-    <hyperlink ref="E110" r:id="rId106"/>
-    <hyperlink ref="E111" r:id="rId107"/>
-    <hyperlink ref="E112" r:id="rId108"/>
-    <hyperlink ref="E113" r:id="rId109"/>
-    <hyperlink ref="E114" r:id="rId110"/>
-    <hyperlink ref="E115" r:id="rId111"/>
-    <hyperlink ref="E116" r:id="rId112"/>
-    <hyperlink ref="E117" r:id="rId113"/>
-    <hyperlink ref="E118" r:id="rId114"/>
-    <hyperlink ref="E119" r:id="rId115"/>
-    <hyperlink ref="E120" r:id="rId116"/>
-    <hyperlink ref="E121" r:id="rId117"/>
-    <hyperlink ref="E122" r:id="rId118" location="371=256"/>
-    <hyperlink ref="E123" r:id="rId119"/>
-    <hyperlink ref="E124" r:id="rId120"/>
-    <hyperlink ref="E125" r:id="rId121"/>
-    <hyperlink ref="E126" r:id="rId122"/>
-    <hyperlink ref="E127" r:id="rId123"/>
-    <hyperlink ref="E128" r:id="rId124"/>
-    <hyperlink ref="E129" r:id="rId125"/>
-    <hyperlink ref="E130" r:id="rId126"/>
-    <hyperlink ref="E131" r:id="rId127"/>
-    <hyperlink ref="E132" r:id="rId128"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F42" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F43" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F62" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F63" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F64" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F65" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F66" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F67" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F68" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F69" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F70" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F71" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F72" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F73" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F74" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F75" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F76" r:id="rId72" location="348=95" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F77" r:id="rId73" location="348=107" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F78" r:id="rId74" location="348=96" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F79" r:id="rId75" location="371=276" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F80" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F81" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F82" r:id="rId78" location="371=455" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F83" r:id="rId79" location="371=246" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F84" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F85" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F86" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F87" r:id="rId83" location="368=229" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F88" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F89" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F90" r:id="rId86" location="199=15" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F91" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F92" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F93" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F94" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F95" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F96" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F97" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F98" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F99" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F100" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F101" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F102" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F103" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F104" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F105" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F106" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F107" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F108" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F109" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F110" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F111" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F112" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F113" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F114" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F115" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F116" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F117" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F118" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F119" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F120" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F121" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F122" r:id="rId118" location="371=256" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F123" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F124" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F125" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F126" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F127" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F128" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F129" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F130" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F131" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F132" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
